--- a/team_specific_matrix/Holy Cross_A.xlsx
+++ b/team_specific_matrix/Holy Cross_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2417582417582418</v>
+        <v>0.2358078602620087</v>
       </c>
       <c r="C2">
-        <v>0.467032967032967</v>
+        <v>0.4759825327510917</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02197802197802198</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1441048034934498</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1153846153846154</v>
+        <v>0.1222707423580786</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02352941176470588</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02352941176470588</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7294117647058823</v>
+        <v>0.7064220183486238</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2235294117647059</v>
+        <v>0.2293577981651376</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2916666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07547169811320754</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03144654088050314</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03144654088050314</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.169811320754717</v>
+        <v>0.1658536585365854</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006289308176100629</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1823899371069182</v>
+        <v>0.1658536585365854</v>
       </c>
       <c r="R6">
-        <v>0.1069182389937107</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="S6">
-        <v>0.3962264150943396</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09774436090225563</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03007518796992481</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="F7">
-        <v>0.06015037593984962</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1353383458646616</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01503759398496241</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1954887218045113</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="R7">
-        <v>0.06766917293233082</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.3984962406015037</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08426966292134831</v>
+        <v>0.07223476297968397</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01685393258426966</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05056179775280899</v>
+        <v>0.06094808126410835</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.101123595505618</v>
+        <v>0.1038374717832957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02247191011235955</v>
+        <v>0.01805869074492099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1544943820224719</v>
+        <v>0.1693002257336343</v>
       </c>
       <c r="R8">
-        <v>0.09269662921348315</v>
+        <v>0.0835214446952596</v>
       </c>
       <c r="S8">
-        <v>0.4775280898876405</v>
+        <v>0.4785553047404063</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05586592178770949</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0335195530726257</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07262569832402235</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.106145251396648</v>
+        <v>0.1115702479338843</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0223463687150838</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1787709497206704</v>
+        <v>0.1859504132231405</v>
       </c>
       <c r="R9">
-        <v>0.09497206703910614</v>
+        <v>0.1033057851239669</v>
       </c>
       <c r="S9">
-        <v>0.4357541899441341</v>
+        <v>0.4173553719008264</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08049886621315193</v>
+        <v>0.08451957295373666</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02947845804988662</v>
+        <v>0.02846975088967971</v>
       </c>
       <c r="E10">
-        <v>0.001133786848072562</v>
+        <v>0.0008896797153024911</v>
       </c>
       <c r="F10">
-        <v>0.07369614512471655</v>
+        <v>0.07829181494661921</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08956916099773243</v>
+        <v>0.09252669039145907</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.018140589569161</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2006802721088435</v>
+        <v>0.201067615658363</v>
       </c>
       <c r="R10">
-        <v>0.09410430839002268</v>
+        <v>0.09608540925266904</v>
       </c>
       <c r="S10">
-        <v>0.4126984126984127</v>
+        <v>0.400355871886121</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.11</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="K11">
-        <v>0.175</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="L11">
-        <v>0.61</v>
+        <v>0.5703703703703704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.015</v>
+        <v>0.01481481481481482</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7377049180327869</v>
+        <v>0.7597402597402597</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2049180327868853</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="K12">
-        <v>0.01639344262295082</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="L12">
-        <v>0.01639344262295082</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01685393258426966</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1685393258426966</v>
+        <v>0.1552511415525114</v>
       </c>
       <c r="I15">
-        <v>0.07303370786516854</v>
+        <v>0.1004566210045662</v>
       </c>
       <c r="J15">
-        <v>0.3764044943820224</v>
+        <v>0.3607305936073059</v>
       </c>
       <c r="K15">
-        <v>0.05617977528089887</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01123595505617977</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03370786516853932</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2640449438202247</v>
+        <v>0.2648401826484018</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01754385964912281</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2017543859649123</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="I16">
-        <v>0.08771929824561403</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="J16">
-        <v>0.3245614035087719</v>
+        <v>0.3357664233576642</v>
       </c>
       <c r="K16">
-        <v>0.08771929824561403</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02631578947368421</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N16">
-        <v>0.008771929824561403</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="O16">
-        <v>0.08771929824561403</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.1605839416058394</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.021875</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.171875</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="I17">
-        <v>0.1375</v>
+        <v>0.1411483253588517</v>
       </c>
       <c r="J17">
-        <v>0.365625</v>
+        <v>0.3803827751196172</v>
       </c>
       <c r="K17">
-        <v>0.075</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.028125</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06875000000000001</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.13125</v>
+        <v>0.1220095693779904</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006329113924050633</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2215189873417721</v>
+        <v>0.2009803921568628</v>
       </c>
       <c r="I18">
-        <v>0.0759493670886076</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="J18">
-        <v>0.3924050632911392</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="K18">
-        <v>0.08227848101265822</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02531645569620253</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08227848101265822</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1139240506329114</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01393034825870647</v>
+        <v>0.01259842519685039</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2149253731343284</v>
+        <v>0.2188976377952756</v>
       </c>
       <c r="I19">
-        <v>0.09850746268656717</v>
+        <v>0.1007874015748031</v>
       </c>
       <c r="J19">
-        <v>0.373134328358209</v>
+        <v>0.3637795275590551</v>
       </c>
       <c r="K19">
-        <v>0.09950248756218906</v>
+        <v>0.1039370078740157</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01194029850746269</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="N19">
-        <v>0.001990049751243781</v>
+        <v>0.001574803149606299</v>
       </c>
       <c r="O19">
-        <v>0.07960199004975124</v>
+        <v>0.07716535433070866</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1064676616915423</v>
+        <v>0.1094488188976378</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Holy Cross_A.xlsx
+++ b/team_specific_matrix/Holy Cross_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2358078602620087</v>
+        <v>0.232</v>
       </c>
       <c r="C2">
-        <v>0.4759825327510917</v>
+        <v>0.484</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02183406113537118</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1441048034934498</v>
+        <v>0.148</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1222707423580786</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01834862385321101</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04587155963302753</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7064220183486238</v>
+        <v>0.71900826446281</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2293577981651376</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6071428571428571</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06829268292682927</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02439024390243903</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02926829268292683</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1658536585365854</v>
+        <v>0.1615720524017467</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01463414634146342</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658536585365854</v>
+        <v>0.1834061135371179</v>
       </c>
       <c r="R6">
-        <v>0.1170731707317073</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="S6">
-        <v>0.4146341463414634</v>
+        <v>0.4148471615720524</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07954545454545454</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02840909090909091</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="E7">
-        <v>0.005681818181818182</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F7">
-        <v>0.05113636363636364</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1704545454545454</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01136363636363636</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2159090909090909</v>
+        <v>0.1979695431472081</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="S7">
-        <v>0.375</v>
+        <v>0.3807106598984771</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07223476297968397</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01354401805869074</v>
+        <v>0.01821862348178137</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06094808126410835</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1038374717832957</v>
+        <v>0.1072874493927125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01805869074492099</v>
+        <v>0.01821862348178137</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1693002257336343</v>
+        <v>0.1740890688259109</v>
       </c>
       <c r="R8">
-        <v>0.0835214446952596</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="S8">
-        <v>0.4785553047404063</v>
+        <v>0.4676113360323887</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07851239669421488</v>
+        <v>0.07063197026022305</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02892561983471074</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05785123966942149</v>
+        <v>0.07063197026022305</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1115702479338843</v>
+        <v>0.104089219330855</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01652892561983471</v>
+        <v>0.01858736059479554</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1859504132231405</v>
+        <v>0.1858736059479554</v>
       </c>
       <c r="R9">
-        <v>0.1033057851239669</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="S9">
-        <v>0.4173553719008264</v>
+        <v>0.412639405204461</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08451957295373666</v>
+        <v>0.08138597904915391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02846975088967971</v>
+        <v>0.0290088638195004</v>
       </c>
       <c r="E10">
-        <v>0.0008896797153024911</v>
+        <v>0.0008058017727639</v>
       </c>
       <c r="F10">
-        <v>0.07829181494661921</v>
+        <v>0.08058017727639001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09252669039145907</v>
+        <v>0.09347300564061241</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01779359430604982</v>
+        <v>0.0185334407735697</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.201067615658363</v>
+        <v>0.1990330378726833</v>
       </c>
       <c r="R10">
-        <v>0.09608540925266904</v>
+        <v>0.0926672038678485</v>
       </c>
       <c r="S10">
-        <v>0.400355871886121</v>
+        <v>0.4045124899274778</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1259259259259259</v>
+        <v>0.1180327868852459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0962962962962963</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K11">
-        <v>0.1925925925925926</v>
+        <v>0.1836065573770492</v>
       </c>
       <c r="L11">
-        <v>0.5703703703703704</v>
+        <v>0.5868852459016394</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01481481481481482</v>
+        <v>0.01311475409836066</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7597402597402597</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1883116883116883</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="K12">
-        <v>0.01298701298701299</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L12">
-        <v>0.01298701298701299</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02597402597402598</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0136986301369863</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1552511415525114</v>
+        <v>0.1528925619834711</v>
       </c>
       <c r="I15">
-        <v>0.1004566210045662</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="J15">
-        <v>0.3607305936073059</v>
+        <v>0.3471074380165289</v>
       </c>
       <c r="K15">
-        <v>0.0593607305936073</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0091324200913242</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0365296803652968</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2648401826484018</v>
+        <v>0.268595041322314</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0291970802919708</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1897810218978102</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="I16">
-        <v>0.0948905109489051</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="J16">
-        <v>0.3357664233576642</v>
+        <v>0.367741935483871</v>
       </c>
       <c r="K16">
-        <v>0.072992700729927</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0218978102189781</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="N16">
-        <v>0.0072992700729927</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="O16">
-        <v>0.08759124087591241</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1605839416058394</v>
+        <v>0.1548387096774194</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01913875598086124</v>
+        <v>0.01727861771058315</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1626794258373206</v>
+        <v>0.16414686825054</v>
       </c>
       <c r="I17">
-        <v>0.1411483253588517</v>
+        <v>0.142548596112311</v>
       </c>
       <c r="J17">
-        <v>0.3803827751196172</v>
+        <v>0.3758099352051836</v>
       </c>
       <c r="K17">
-        <v>0.08851674641148326</v>
+        <v>0.09071274298056156</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02392344497607655</v>
+        <v>0.02159827213822894</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06220095693779904</v>
+        <v>0.06263498920086392</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1220095693779904</v>
+        <v>0.1252699784017278</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009803921568627451</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2009803921568628</v>
+        <v>0.2044444444444445</v>
       </c>
       <c r="I18">
-        <v>0.09313725490196079</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="J18">
-        <v>0.3823529411764706</v>
+        <v>0.3688888888888889</v>
       </c>
       <c r="K18">
-        <v>0.08823529411764706</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02941176470588235</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07843137254901961</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1155555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01259842519685039</v>
+        <v>0.01137171286425018</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2188976377952756</v>
+        <v>0.2217484008528785</v>
       </c>
       <c r="I19">
-        <v>0.1007874015748031</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="J19">
-        <v>0.3637795275590551</v>
+        <v>0.3589196872778962</v>
       </c>
       <c r="K19">
-        <v>0.1039370078740157</v>
+        <v>0.1066098081023454</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01181102362204724</v>
+        <v>0.01350390902629709</v>
       </c>
       <c r="N19">
-        <v>0.001574803149606299</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="O19">
-        <v>0.07716535433070866</v>
+        <v>0.07604832977967306</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1094488188976378</v>
+        <v>0.1101634683724236</v>
       </c>
     </row>
   </sheetData>
